--- a/Resources/Sheets/Funcionarios.xlsx
+++ b/Resources/Sheets/Funcionarios.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0 - Personal\portfolio\projects\0\people_analytics\Resources\Sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0 - Personal\portfolio\projects\0\Resources\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1F2ED5-14B3-4088-A87D-9A83537DCF04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4DAF23-50B5-4DFE-9C8E-E7F725A5E5E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-29775" yWindow="0" windowWidth="28950" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4568,6 +4568,25 @@
   </cellStyles>
   <dxfs count="24">
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -4584,25 +4603,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
       <protection locked="0" hidden="0"/>
     </dxf>
@@ -4712,12 +4712,12 @@
     <tableColumn id="15" xr3:uid="{BAD9A5A2-9A64-4B56-86AC-9254F13A8AC0}" name="Nacionalidade" dataDxfId="8"/>
     <tableColumn id="16" xr3:uid="{4FC768AE-6219-4FF4-ADEC-11BFF022E9B9}" name="Cód Raça" dataDxfId="7"/>
     <tableColumn id="17" xr3:uid="{E30248B9-5FC0-45BC-BB77-A52662A8C437}" name="Raça" dataDxfId="6"/>
-    <tableColumn id="18" xr3:uid="{EB843990-6258-4DDF-8C13-C6A2DE7E4E23}" name="Valor Salário" dataDxfId="0" dataCellStyle="Currency"/>
-    <tableColumn id="19" xr3:uid="{39C222D7-20D7-412A-8BA5-1304EEDFB8A3}" name="Cód Situação" dataDxfId="5"/>
-    <tableColumn id="20" xr3:uid="{3D1A15EB-D1FC-45A0-BBFE-89868AFE908D}" name="Situação" dataDxfId="4"/>
-    <tableColumn id="21" xr3:uid="{A2698275-13F7-4B49-AB6A-1FE961D502E6}" name="Data Afastamento" dataDxfId="3"/>
-    <tableColumn id="23" xr3:uid="{378F5B4C-4B78-4D85-8362-AF312FAF5DC1}" name="Causa Afastamento" dataDxfId="2"/>
-    <tableColumn id="24" xr3:uid="{4A1EB04F-51F2-484D-9178-B76CEAEBBD5B}" name="Forma Trabalho" dataDxfId="1"/>
+    <tableColumn id="18" xr3:uid="{EB843990-6258-4DDF-8C13-C6A2DE7E4E23}" name="Valor Salário" dataDxfId="5" dataCellStyle="Currency"/>
+    <tableColumn id="19" xr3:uid="{39C222D7-20D7-412A-8BA5-1304EEDFB8A3}" name="Cód Situação" dataDxfId="4"/>
+    <tableColumn id="20" xr3:uid="{3D1A15EB-D1FC-45A0-BBFE-89868AFE908D}" name="Situação" dataDxfId="3"/>
+    <tableColumn id="21" xr3:uid="{A2698275-13F7-4B49-AB6A-1FE961D502E6}" name="Data Afastamento" dataDxfId="2"/>
+    <tableColumn id="23" xr3:uid="{378F5B4C-4B78-4D85-8362-AF312FAF5DC1}" name="Causa Afastamento" dataDxfId="1"/>
+    <tableColumn id="24" xr3:uid="{4A1EB04F-51F2-484D-9178-B76CEAEBBD5B}" name="Forma Trabalho" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5022,8 +5022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W775"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
